--- a/backend/routes/[Attendify] Student Attendance Today.xlsx
+++ b/backend/routes/[Attendify] Student Attendance Today.xlsx
@@ -397,13 +397,877 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F61"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>student_id</v>
+      </c>
+      <c r="B1" t="str">
+        <v>full_name</v>
+      </c>
+      <c r="C1" t="str">
+        <v>grade_section</v>
+      </c>
+      <c r="D1" t="str">
+        <v>status</v>
+      </c>
+      <c r="E1" t="str">
+        <v>time_in</v>
+      </c>
+      <c r="F1" t="str">
+        <v>remark</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>unofficial1</v>
+      </c>
+      <c r="B2" t="str">
+        <v>BERMUNDO, JIEANNE BASISTER</v>
+      </c>
+      <c r="C2" t="str">
+        <v>11-ABM</v>
+      </c>
+      <c r="D2" t="str">
+        <v>absent</v>
+      </c>
+      <c r="F2" t="str">
+        <v>Nagcutting</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>unofficial2</v>
+      </c>
+      <c r="B3" t="str">
+        <v>CEPE, JAMESON RELLORA</v>
+      </c>
+      <c r="C3" t="str">
+        <v>11-ABM</v>
+      </c>
+      <c r="D3" t="str">
+        <v>absent</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>unofficial3</v>
+      </c>
+      <c r="B4" t="str">
+        <v>ESPERIDA, CARL SHANZEN CURATIVO</v>
+      </c>
+      <c r="C4" t="str">
+        <v>11-ABM</v>
+      </c>
+      <c r="D4" t="str">
+        <v>absent</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>unofficial4</v>
+      </c>
+      <c r="B5" t="str">
+        <v>GONZALES, JEMHYCA JEN SALLAO</v>
+      </c>
+      <c r="C5" t="str">
+        <v>11-ABM</v>
+      </c>
+      <c r="D5" t="str">
+        <v>absent</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>unofficial5</v>
+      </c>
+      <c r="B6" t="str">
+        <v>GONZALES, JOSHAN SALLAO</v>
+      </c>
+      <c r="C6" t="str">
+        <v>11-ABM</v>
+      </c>
+      <c r="D6" t="str">
+        <v>absent</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>unofficial6</v>
+      </c>
+      <c r="B7" t="str">
+        <v>LANGREO, GELIAN SOPHIA ENCINAS</v>
+      </c>
+      <c r="C7" t="str">
+        <v>11-ABM</v>
+      </c>
+      <c r="D7" t="str">
+        <v>absent</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>unofficial7</v>
+      </c>
+      <c r="B8" t="str">
+        <v>MAGADIA, LOURD GAVIN BUEZA</v>
+      </c>
+      <c r="C8" t="str">
+        <v>11-ABM</v>
+      </c>
+      <c r="D8" t="str">
+        <v>absent</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>unofficial8</v>
+      </c>
+      <c r="B9" t="str">
+        <v>POLICARPIO, JAN RHEY ALBERTO</v>
+      </c>
+      <c r="C9" t="str">
+        <v>11-ABM</v>
+      </c>
+      <c r="D9" t="str">
+        <v>absent</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>unofficial9</v>
+      </c>
+      <c r="B10" t="str">
+        <v>SACUEZA, FRANCES SOPHIA AGRAVANTE</v>
+      </c>
+      <c r="C10" t="str">
+        <v>11-ABM</v>
+      </c>
+      <c r="D10" t="str">
+        <v>absent</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>unofficial10</v>
+      </c>
+      <c r="B11" t="str">
+        <v>SAN VICENTE, ANDRE JAY SALAZAR</v>
+      </c>
+      <c r="C11" t="str">
+        <v>11-ABM</v>
+      </c>
+      <c r="D11" t="str">
+        <v>absent</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>unofficial11</v>
+      </c>
+      <c r="B12" t="str">
+        <v>VALENZUELA, CRYSTAL JANE APOSTOL</v>
+      </c>
+      <c r="C12" t="str">
+        <v>11-ABM</v>
+      </c>
+      <c r="D12" t="str">
+        <v>absent</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>unofficial12</v>
+      </c>
+      <c r="B13" t="str">
+        <v>ZAMUDIO, PATRICIA NICOLE LUKBAN</v>
+      </c>
+      <c r="C13" t="str">
+        <v>11-ABM</v>
+      </c>
+      <c r="D13" t="str">
+        <v>absent</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>unofficial49</v>
+      </c>
+      <c r="B14" t="str">
+        <v>ARGOSO, LIAN MIEL BORINGOT</v>
+      </c>
+      <c r="C14" t="str">
+        <v>11-HUMSS</v>
+      </c>
+      <c r="D14" t="str">
+        <v>absent</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>unofficial50</v>
+      </c>
+      <c r="B15" t="str">
+        <v>BAZAR, GENESIS VINCE GALON</v>
+      </c>
+      <c r="C15" t="str">
+        <v>11-HUMSS</v>
+      </c>
+      <c r="D15" t="str">
+        <v>absent</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>unofficial51</v>
+      </c>
+      <c r="B16" t="str">
+        <v>CEPE, JOHN REINER RELLORA</v>
+      </c>
+      <c r="C16" t="str">
+        <v>11-HUMSS</v>
+      </c>
+      <c r="D16" t="str">
+        <v>absent</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>unofficial52</v>
+      </c>
+      <c r="B17" t="str">
+        <v>COMPUESTO, ARIANA YORAC</v>
+      </c>
+      <c r="C17" t="str">
+        <v>11-HUMSS</v>
+      </c>
+      <c r="D17" t="str">
+        <v>absent</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>unofficial53</v>
+      </c>
+      <c r="B18" t="str">
+        <v>CUISON, IRISH KATE MENDEZ</v>
+      </c>
+      <c r="C18" t="str">
+        <v>11-HUMSS</v>
+      </c>
+      <c r="D18" t="str">
+        <v>absent</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>unofficial54</v>
+      </c>
+      <c r="B19" t="str">
+        <v>EVANGELISTA, NIYA MIZUKI AGRAVANTE</v>
+      </c>
+      <c r="C19" t="str">
+        <v>11-HUMSS</v>
+      </c>
+      <c r="D19" t="str">
+        <v>absent</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>unofficial55</v>
+      </c>
+      <c r="B20" t="str">
+        <v>HUIT, CHARMIE CORRE</v>
+      </c>
+      <c r="C20" t="str">
+        <v>11-HUMSS</v>
+      </c>
+      <c r="D20" t="str">
+        <v>absent</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>unofficial56</v>
+      </c>
+      <c r="B21" t="str">
+        <v>LEONOR, THRICIA OGAD</v>
+      </c>
+      <c r="C21" t="str">
+        <v>11-HUMSS</v>
+      </c>
+      <c r="D21" t="str">
+        <v>absent</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>unofficial57</v>
+      </c>
+      <c r="B22" t="str">
+        <v>MAPA, KAMILAH MORAÑO</v>
+      </c>
+      <c r="C22" t="str">
+        <v>11-HUMSS</v>
+      </c>
+      <c r="D22" t="str">
+        <v>absent</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>unofficial58</v>
+      </c>
+      <c r="B23" t="str">
+        <v>OGOY, KIARA SAMANTHA BORJA</v>
+      </c>
+      <c r="C23" t="str">
+        <v>11-HUMSS</v>
+      </c>
+      <c r="D23" t="str">
+        <v>absent</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>unofficial59</v>
+      </c>
+      <c r="B24" t="str">
+        <v>RELAGIO, ELIEZAH NELLIE OLLERES</v>
+      </c>
+      <c r="C24" t="str">
+        <v>11-HUMSS</v>
+      </c>
+      <c r="D24" t="str">
+        <v>absent</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>unofficial60</v>
+      </c>
+      <c r="B25" t="str">
+        <v>REQUIRO, GABRIEL ANDES</v>
+      </c>
+      <c r="C25" t="str">
+        <v>11-HUMSS</v>
+      </c>
+      <c r="D25" t="str">
+        <v>absent</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>unofficial25</v>
+      </c>
+      <c r="B26" t="str">
+        <v>ABDON, JERALD FABOR</v>
+      </c>
+      <c r="C26" t="str">
+        <v>11-MAWD</v>
+      </c>
+      <c r="D26" t="str">
+        <v>absent</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>unofficial26</v>
+      </c>
+      <c r="B27" t="str">
+        <v>ARCEO, ALPHA CHRISTI</v>
+      </c>
+      <c r="C27" t="str">
+        <v>11-MAWD</v>
+      </c>
+      <c r="D27" t="str">
+        <v>absent</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>unofficial27</v>
+      </c>
+      <c r="B28" t="str">
+        <v>BELGICA, REX ANGELO BAESA</v>
+      </c>
+      <c r="C28" t="str">
+        <v>11-MAWD</v>
+      </c>
+      <c r="D28" t="str">
+        <v>absent</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>unofficial28</v>
+      </c>
+      <c r="B29" t="str">
+        <v>CARULLA, PAULO GORDON LANUZA</v>
+      </c>
+      <c r="C29" t="str">
+        <v>11-MAWD</v>
+      </c>
+      <c r="D29" t="str">
+        <v>absent</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>unofficial29</v>
+      </c>
+      <c r="B30" t="str">
+        <v>DE LEON, KARL ANGELO ALDEZA</v>
+      </c>
+      <c r="C30" t="str">
+        <v>11-MAWD</v>
+      </c>
+      <c r="D30" t="str">
+        <v>absent</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>unofficial30</v>
+      </c>
+      <c r="B31" t="str">
+        <v>DOCOT, JAZZ DANZEL VIDAL</v>
+      </c>
+      <c r="C31" t="str">
+        <v>11-MAWD</v>
+      </c>
+      <c r="D31" t="str">
+        <v>absent</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>unofficial31</v>
+      </c>
+      <c r="B32" t="str">
+        <v>FABOR, RUDYMAR MORALEDA</v>
+      </c>
+      <c r="C32" t="str">
+        <v>11-MAWD</v>
+      </c>
+      <c r="D32" t="str">
+        <v>absent</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>unofficial32</v>
+      </c>
+      <c r="B33" t="str">
+        <v>POLOAN, MATTHEW EMMANUEL NORA</v>
+      </c>
+      <c r="C33" t="str">
+        <v>11-MAWD</v>
+      </c>
+      <c r="D33" t="str">
+        <v>absent</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>unofficial33</v>
+      </c>
+      <c r="B34" t="str">
+        <v>RELOS, LAWRENCE SABALBORO</v>
+      </c>
+      <c r="C34" t="str">
+        <v>11-MAWD</v>
+      </c>
+      <c r="D34" t="str">
+        <v>absent</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>unofficial34</v>
+      </c>
+      <c r="B35" t="str">
+        <v>RILLON, PHOEBE KAYE TOGNO</v>
+      </c>
+      <c r="C35" t="str">
+        <v>11-MAWD</v>
+      </c>
+      <c r="D35" t="str">
+        <v>absent</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v>unofficial35</v>
+      </c>
+      <c r="B36" t="str">
+        <v>VILLACRUSIS, EDWARD JOSEPH VILLEGAS</v>
+      </c>
+      <c r="C36" t="str">
+        <v>11-MAWD</v>
+      </c>
+      <c r="D36" t="str">
+        <v>absent</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>unofficial36</v>
+      </c>
+      <c r="B37" t="str">
+        <v>VILLALUNA, JOHN ELIJAH BONIFACIO</v>
+      </c>
+      <c r="C37" t="str">
+        <v>11-MAWD</v>
+      </c>
+      <c r="D37" t="str">
+        <v>absent</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>unofficial37</v>
+      </c>
+      <c r="B38" t="str">
+        <v>ABOUTALEB, FATMA VERALDE</v>
+      </c>
+      <c r="C38" t="str">
+        <v>11-STEMa</v>
+      </c>
+      <c r="D38" t="str">
+        <v>absent</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v>unofficial38</v>
+      </c>
+      <c r="B39" t="str">
+        <v>BARROGA, PRINCESS APPLE TANGELI</v>
+      </c>
+      <c r="C39" t="str">
+        <v>11-STEMa</v>
+      </c>
+      <c r="D39" t="str">
+        <v>absent</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v>unofficial39</v>
+      </c>
+      <c r="B40" t="str">
+        <v>CAYABYAB, RAYMART LABARO</v>
+      </c>
+      <c r="C40" t="str">
+        <v>11-STEMa</v>
+      </c>
+      <c r="D40" t="str">
+        <v>absent</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v>unofficial40</v>
+      </c>
+      <c r="B41" t="str">
+        <v>CLAVO, SHY PILONEO</v>
+      </c>
+      <c r="C41" t="str">
+        <v>11-STEMa</v>
+      </c>
+      <c r="D41" t="str">
+        <v>absent</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v>unofficial41</v>
+      </c>
+      <c r="B42" t="str">
+        <v>CORPORAL, MICAH GRACE SALCEDO</v>
+      </c>
+      <c r="C42" t="str">
+        <v>11-STEMa</v>
+      </c>
+      <c r="D42" t="str">
+        <v>absent</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v>unofficial42</v>
+      </c>
+      <c r="B43" t="str">
+        <v>LABADOR, ALLYSA MAE PEDIMONTE</v>
+      </c>
+      <c r="C43" t="str">
+        <v>11-STEMa</v>
+      </c>
+      <c r="D43" t="str">
+        <v>absent</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v>unofficial43</v>
+      </c>
+      <c r="B44" t="str">
+        <v>PEDIMONTE, WHIMSY KEYT SERDAN</v>
+      </c>
+      <c r="C44" t="str">
+        <v>11-STEMa</v>
+      </c>
+      <c r="D44" t="str">
+        <v>absent</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="str">
+        <v>unofficial44</v>
+      </c>
+      <c r="B45" t="str">
+        <v>RAMOS, ENOS ELLORDE</v>
+      </c>
+      <c r="C45" t="str">
+        <v>11-STEMa</v>
+      </c>
+      <c r="D45" t="str">
+        <v>absent</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="str">
+        <v>unofficial45</v>
+      </c>
+      <c r="B46" t="str">
+        <v>TIRAO, IANNA NICOLE SACLOTE</v>
+      </c>
+      <c r="C46" t="str">
+        <v>11-STEMa</v>
+      </c>
+      <c r="D46" t="str">
+        <v>absent</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="str">
+        <v>unofficial46</v>
+      </c>
+      <c r="B47" t="str">
+        <v>VARGAS, FIONA LYN BACERA</v>
+      </c>
+      <c r="C47" t="str">
+        <v>11-STEMa</v>
+      </c>
+      <c r="D47" t="str">
+        <v>absent</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="str">
+        <v>unofficial47</v>
+      </c>
+      <c r="B48" t="str">
+        <v>VARGAS, ISAAC ORZALES</v>
+      </c>
+      <c r="C48" t="str">
+        <v>11-STEMa</v>
+      </c>
+      <c r="D48" t="str">
+        <v>absent</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="str">
+        <v>unofficial48</v>
+      </c>
+      <c r="B49" t="str">
+        <v>VILLANUEVA, CHARMEL SALCEDO</v>
+      </c>
+      <c r="C49" t="str">
+        <v>11-STEMa</v>
+      </c>
+      <c r="D49" t="str">
+        <v>absent</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="str">
+        <v>unofficial13</v>
+      </c>
+      <c r="B50" t="str">
+        <v>Albienda, Lebron James Ranin</v>
+      </c>
+      <c r="C50" t="str">
+        <v>11-STEMb</v>
+      </c>
+      <c r="D50" t="str">
+        <v>absent</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="str">
+        <v>unofficial14</v>
+      </c>
+      <c r="B51" t="str">
+        <v>Amaro, Ariane Agravante</v>
+      </c>
+      <c r="C51" t="str">
+        <v>11-STEMb</v>
+      </c>
+      <c r="D51" t="str">
+        <v>absent</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="str">
+        <v>unofficial15</v>
+      </c>
+      <c r="B52" t="str">
+        <v>Aniete, Marylan Belarmino</v>
+      </c>
+      <c r="C52" t="str">
+        <v>11-STEMb</v>
+      </c>
+      <c r="D52" t="str">
+        <v>absent</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="str">
+        <v>unofficial16</v>
+      </c>
+      <c r="B53" t="str">
+        <v>Año, Kniza Alira Noria</v>
+      </c>
+      <c r="C53" t="str">
+        <v>11-STEMb</v>
+      </c>
+      <c r="D53" t="str">
+        <v>absent</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="str">
+        <v>unofficial17</v>
+      </c>
+      <c r="B54" t="str">
+        <v>Bermas, Ishriel Jan</v>
+      </c>
+      <c r="C54" t="str">
+        <v>11-STEMb</v>
+      </c>
+      <c r="D54" t="str">
+        <v>absent</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="str">
+        <v>unofficial18</v>
+      </c>
+      <c r="B55" t="str">
+        <v>Dolin, Chriz Dhereck Valino</v>
+      </c>
+      <c r="C55" t="str">
+        <v>11-STEMb</v>
+      </c>
+      <c r="D55" t="str">
+        <v>absent</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="str">
+        <v>unofficial19</v>
+      </c>
+      <c r="B56" t="str">
+        <v>Folloso, Jastine Mae Chunaco</v>
+      </c>
+      <c r="C56" t="str">
+        <v>11-STEMb</v>
+      </c>
+      <c r="D56" t="str">
+        <v>absent</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="str">
+        <v>unofficial20</v>
+      </c>
+      <c r="B57" t="str">
+        <v>Langcaun, John Rafael Chavez</v>
+      </c>
+      <c r="C57" t="str">
+        <v>11-STEMb</v>
+      </c>
+      <c r="D57" t="str">
+        <v>absent</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="str">
+        <v>unofficial21</v>
+      </c>
+      <c r="B58" t="str">
+        <v>Madrid, Jayson Antiporda</v>
+      </c>
+      <c r="C58" t="str">
+        <v>11-STEMb</v>
+      </c>
+      <c r="D58" t="str">
+        <v>absent</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="str">
+        <v>unofficial22</v>
+      </c>
+      <c r="B59" t="str">
+        <v>Parpan, John Benedict Besmonte</v>
+      </c>
+      <c r="C59" t="str">
+        <v>11-STEMb</v>
+      </c>
+      <c r="D59" t="str">
+        <v>absent</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="str">
+        <v>unofficial23</v>
+      </c>
+      <c r="B60" t="str">
+        <v>Reyes, Rossame Ramirez</v>
+      </c>
+      <c r="C60" t="str">
+        <v>11-STEMb</v>
+      </c>
+      <c r="D60" t="str">
+        <v>absent</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="str">
+        <v>unofficial24</v>
+      </c>
+      <c r="B61" t="str">
+        <v>Selleza, Ariana Grace Orais</v>
+      </c>
+      <c r="C61" t="str">
+        <v>11-STEMb</v>
+      </c>
+      <c r="D61" t="str">
+        <v>absent</v>
+      </c>
+    </row>
+  </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F61"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/backend/routes/[Attendify] Student Attendance Today.xlsx
+++ b/backend/routes/[Attendify] Student Attendance Today.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F49"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -424,7 +424,7 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>unofficial1</v>
+        <v>02000421510</v>
       </c>
       <c r="B2" t="str">
         <v>BERMUNDO, JIEANNE BASISTER</v>
@@ -433,55 +433,43 @@
         <v>11-ABM</v>
       </c>
       <c r="D2" t="str">
-        <v>present</v>
-      </c>
-      <c r="E2" t="str">
-        <v>09:56:29</v>
-      </c>
-      <c r="F2" t="str">
-        <v>Late</v>
+        <v>absent</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>unofficial2</v>
+        <v>02000421510</v>
       </c>
       <c r="B3" t="str">
-        <v>CEPE, JAMESON RELLORA</v>
+        <v>BERMUNDO, JIEANNE BASISTER</v>
       </c>
       <c r="C3" t="str">
         <v>11-ABM</v>
       </c>
       <c r="D3" t="str">
-        <v>present</v>
-      </c>
-      <c r="E3" t="str">
-        <v>09:56:35</v>
+        <v>absent</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>unofficial3</v>
+        <v>02000421510</v>
       </c>
       <c r="B4" t="str">
-        <v>ESPERIDA, CARL SHANZEN CURATIVO</v>
+        <v>BERMUNDO, JIEANNE BASISTER</v>
       </c>
       <c r="C4" t="str">
         <v>11-ABM</v>
       </c>
       <c r="D4" t="str">
-        <v>present</v>
-      </c>
-      <c r="E4" t="str">
-        <v>09:56:38</v>
+        <v>absent</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>unofficial4</v>
+        <v>02000421510</v>
       </c>
       <c r="B5" t="str">
-        <v>GONZALES, JEMHYCA JEN SALLAO</v>
+        <v>BERMUNDO, JIEANNE BASISTER</v>
       </c>
       <c r="C5" t="str">
         <v>11-ABM</v>
@@ -490,15 +478,15 @@
         <v>present</v>
       </c>
       <c r="E5" t="str">
-        <v>09:56:40</v>
+        <v>09:08:00</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>unofficial5</v>
+        <v>02000398472</v>
       </c>
       <c r="B6" t="str">
-        <v>GONZALES, JOSHAN SALLAO</v>
+        <v>CEPE, JAMESON RELLORA</v>
       </c>
       <c r="C6" t="str">
         <v>11-ABM</v>
@@ -507,117 +495,99 @@
         <v>present</v>
       </c>
       <c r="E6" t="str">
-        <v>09:56:41</v>
+        <v>09:08:00</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>unofficial6</v>
+        <v>02000398472</v>
       </c>
       <c r="B7" t="str">
-        <v>LANGREO, GELIAN SOPHIA ENCINAS</v>
+        <v>CEPE, JAMESON RELLORA</v>
       </c>
       <c r="C7" t="str">
         <v>11-ABM</v>
       </c>
       <c r="D7" t="str">
-        <v>present</v>
-      </c>
-      <c r="E7" t="str">
-        <v>09:56:43</v>
+        <v>absent</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>unofficial7</v>
+        <v>02000398472</v>
       </c>
       <c r="B8" t="str">
-        <v>MAGADIA, LOURD GAVIN BUEZA</v>
+        <v>CEPE, JAMESON RELLORA</v>
       </c>
       <c r="C8" t="str">
         <v>11-ABM</v>
       </c>
       <c r="D8" t="str">
-        <v>present</v>
-      </c>
-      <c r="E8" t="str">
-        <v>09:56:46</v>
+        <v>absent</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>unofficial8</v>
+        <v>02000398472</v>
       </c>
       <c r="B9" t="str">
-        <v>POLICARPIO, JAN RHEY ALBERTO</v>
+        <v>CEPE, JAMESON RELLORA</v>
       </c>
       <c r="C9" t="str">
         <v>11-ABM</v>
       </c>
       <c r="D9" t="str">
-        <v>present</v>
-      </c>
-      <c r="E9" t="str">
-        <v>09:56:48</v>
+        <v>absent</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>unofficial9</v>
+        <v>02000426864</v>
       </c>
       <c r="B10" t="str">
-        <v>SACUEZA, FRANCES SOPHIA AGRAVANTE</v>
+        <v>ESPERIDA, CARL SHANZEN CURATIVO</v>
       </c>
       <c r="C10" t="str">
         <v>11-ABM</v>
       </c>
       <c r="D10" t="str">
-        <v>present</v>
-      </c>
-      <c r="E10" t="str">
-        <v>09:56:49</v>
+        <v>absent</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>unofficial10</v>
+        <v>02000426864</v>
       </c>
       <c r="B11" t="str">
-        <v>SAN VICENTE, ANDRE JAY SALAZAR</v>
+        <v>ESPERIDA, CARL SHANZEN CURATIVO</v>
       </c>
       <c r="C11" t="str">
         <v>11-ABM</v>
       </c>
       <c r="D11" t="str">
-        <v>present</v>
-      </c>
-      <c r="E11" t="str">
-        <v>09:56:51</v>
+        <v>absent</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>unofficial11</v>
+        <v>02000426864</v>
       </c>
       <c r="B12" t="str">
-        <v>VALENZUELA, CRYSTAL JANE APOSTOL</v>
+        <v>ESPERIDA, CARL SHANZEN CURATIVO</v>
       </c>
       <c r="C12" t="str">
         <v>11-ABM</v>
       </c>
       <c r="D12" t="str">
-        <v>present</v>
-      </c>
-      <c r="E12" t="str">
-        <v>09:56:53</v>
+        <v>absent</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>unofficial12</v>
+        <v>02000426864</v>
       </c>
       <c r="B13" t="str">
-        <v>ZAMUDIO, PATRICIA NICOLE LUKBAN</v>
+        <v>ESPERIDA, CARL SHANZEN CURATIVO</v>
       </c>
       <c r="C13" t="str">
         <v>11-ABM</v>
@@ -626,12 +596,543 @@
         <v>present</v>
       </c>
       <c r="E13" t="str">
-        <v>09:56:54</v>
+        <v>09:08:00</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>02000431263</v>
+      </c>
+      <c r="B14" t="str">
+        <v>GONZALES, JEMHYCA JEN SALLAO</v>
+      </c>
+      <c r="C14" t="str">
+        <v>11-ABM</v>
+      </c>
+      <c r="D14" t="str">
+        <v>absent</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>02000431263</v>
+      </c>
+      <c r="B15" t="str">
+        <v>GONZALES, JEMHYCA JEN SALLAO</v>
+      </c>
+      <c r="C15" t="str">
+        <v>11-ABM</v>
+      </c>
+      <c r="D15" t="str">
+        <v>absent</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>02000431263</v>
+      </c>
+      <c r="B16" t="str">
+        <v>GONZALES, JEMHYCA JEN SALLAO</v>
+      </c>
+      <c r="C16" t="str">
+        <v>11-ABM</v>
+      </c>
+      <c r="D16" t="str">
+        <v>absent</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>02000431263</v>
+      </c>
+      <c r="B17" t="str">
+        <v>GONZALES, JEMHYCA JEN SALLAO</v>
+      </c>
+      <c r="C17" t="str">
+        <v>11-ABM</v>
+      </c>
+      <c r="D17" t="str">
+        <v>absent</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>02000386383</v>
+      </c>
+      <c r="B18" t="str">
+        <v>GONZALES, JOSHAN SALLAO</v>
+      </c>
+      <c r="C18" t="str">
+        <v>11-ABM</v>
+      </c>
+      <c r="D18" t="str">
+        <v>present</v>
+      </c>
+      <c r="E18" t="str">
+        <v>09:08:00</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>02000386383</v>
+      </c>
+      <c r="B19" t="str">
+        <v>GONZALES, JOSHAN SALLAO</v>
+      </c>
+      <c r="C19" t="str">
+        <v>11-ABM</v>
+      </c>
+      <c r="D19" t="str">
+        <v>absent</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>02000386383</v>
+      </c>
+      <c r="B20" t="str">
+        <v>GONZALES, JOSHAN SALLAO</v>
+      </c>
+      <c r="C20" t="str">
+        <v>11-ABM</v>
+      </c>
+      <c r="D20" t="str">
+        <v>absent</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>02000386383</v>
+      </c>
+      <c r="B21" t="str">
+        <v>GONZALES, JOSHAN SALLAO</v>
+      </c>
+      <c r="C21" t="str">
+        <v>11-ABM</v>
+      </c>
+      <c r="D21" t="str">
+        <v>absent</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>02000404835</v>
+      </c>
+      <c r="B22" t="str">
+        <v>LANGREO, GELIAN SOPHIA ENCINAS</v>
+      </c>
+      <c r="C22" t="str">
+        <v>11-ABM</v>
+      </c>
+      <c r="D22" t="str">
+        <v>absent</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>02000404835</v>
+      </c>
+      <c r="B23" t="str">
+        <v>LANGREO, GELIAN SOPHIA ENCINAS</v>
+      </c>
+      <c r="C23" t="str">
+        <v>11-ABM</v>
+      </c>
+      <c r="D23" t="str">
+        <v>late</v>
+      </c>
+      <c r="E23" t="str">
+        <v>09:22:25</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>02000404835</v>
+      </c>
+      <c r="B24" t="str">
+        <v>LANGREO, GELIAN SOPHIA ENCINAS</v>
+      </c>
+      <c r="C24" t="str">
+        <v>11-ABM</v>
+      </c>
+      <c r="D24" t="str">
+        <v>absent</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>02000404835</v>
+      </c>
+      <c r="B25" t="str">
+        <v>LANGREO, GELIAN SOPHIA ENCINAS</v>
+      </c>
+      <c r="C25" t="str">
+        <v>11-ABM</v>
+      </c>
+      <c r="D25" t="str">
+        <v>absent</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>02000433161</v>
+      </c>
+      <c r="B26" t="str">
+        <v>MAGADIA, LOURD GAVIN BUEZA</v>
+      </c>
+      <c r="C26" t="str">
+        <v>11-ABM</v>
+      </c>
+      <c r="D26" t="str">
+        <v>present</v>
+      </c>
+      <c r="E26" t="str">
+        <v>09:08:00</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>02000433161</v>
+      </c>
+      <c r="B27" t="str">
+        <v>MAGADIA, LOURD GAVIN BUEZA</v>
+      </c>
+      <c r="C27" t="str">
+        <v>11-ABM</v>
+      </c>
+      <c r="D27" t="str">
+        <v>absent</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>02000433161</v>
+      </c>
+      <c r="B28" t="str">
+        <v>MAGADIA, LOURD GAVIN BUEZA</v>
+      </c>
+      <c r="C28" t="str">
+        <v>11-ABM</v>
+      </c>
+      <c r="D28" t="str">
+        <v>absent</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>02000433161</v>
+      </c>
+      <c r="B29" t="str">
+        <v>MAGADIA, LOURD GAVIN BUEZA</v>
+      </c>
+      <c r="C29" t="str">
+        <v>11-ABM</v>
+      </c>
+      <c r="D29" t="str">
+        <v>absent</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>02000401502</v>
+      </c>
+      <c r="B30" t="str">
+        <v>POLICARPIO, JAN RHEY ALBERTO</v>
+      </c>
+      <c r="C30" t="str">
+        <v>11-ABM</v>
+      </c>
+      <c r="D30" t="str">
+        <v>absent</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>02000401502</v>
+      </c>
+      <c r="B31" t="str">
+        <v>POLICARPIO, JAN RHEY ALBERTO</v>
+      </c>
+      <c r="C31" t="str">
+        <v>11-ABM</v>
+      </c>
+      <c r="D31" t="str">
+        <v>absent</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>02000401502</v>
+      </c>
+      <c r="B32" t="str">
+        <v>POLICARPIO, JAN RHEY ALBERTO</v>
+      </c>
+      <c r="C32" t="str">
+        <v>11-ABM</v>
+      </c>
+      <c r="D32" t="str">
+        <v>present</v>
+      </c>
+      <c r="E32" t="str">
+        <v>09:10:00</v>
+      </c>
+      <c r="F32" t="str">
+        <v>Cutting class</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>02000401502</v>
+      </c>
+      <c r="B33" t="str">
+        <v>POLICARPIO, JAN RHEY ALBERTO</v>
+      </c>
+      <c r="C33" t="str">
+        <v>11-ABM</v>
+      </c>
+      <c r="D33" t="str">
+        <v>absent</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>02000389617</v>
+      </c>
+      <c r="B34" t="str">
+        <v>SACUEZA, FRANCES SOPHIA AGRAVANTE</v>
+      </c>
+      <c r="C34" t="str">
+        <v>11-ABM</v>
+      </c>
+      <c r="D34" t="str">
+        <v>present</v>
+      </c>
+      <c r="E34" t="str">
+        <v>09:08:00</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>02000389617</v>
+      </c>
+      <c r="B35" t="str">
+        <v>SACUEZA, FRANCES SOPHIA AGRAVANTE</v>
+      </c>
+      <c r="C35" t="str">
+        <v>11-ABM</v>
+      </c>
+      <c r="D35" t="str">
+        <v>absent</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v>02000389617</v>
+      </c>
+      <c r="B36" t="str">
+        <v>SACUEZA, FRANCES SOPHIA AGRAVANTE</v>
+      </c>
+      <c r="C36" t="str">
+        <v>11-ABM</v>
+      </c>
+      <c r="D36" t="str">
+        <v>absent</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>02000389617</v>
+      </c>
+      <c r="B37" t="str">
+        <v>SACUEZA, FRANCES SOPHIA AGRAVANTE</v>
+      </c>
+      <c r="C37" t="str">
+        <v>11-ABM</v>
+      </c>
+      <c r="D37" t="str">
+        <v>absent</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>02000399691</v>
+      </c>
+      <c r="B38" t="str">
+        <v>SAN VICENTE, ANDRE JAY SALAZAR</v>
+      </c>
+      <c r="C38" t="str">
+        <v>11-ABM</v>
+      </c>
+      <c r="D38" t="str">
+        <v>absent</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v>02000399691</v>
+      </c>
+      <c r="B39" t="str">
+        <v>SAN VICENTE, ANDRE JAY SALAZAR</v>
+      </c>
+      <c r="C39" t="str">
+        <v>11-ABM</v>
+      </c>
+      <c r="D39" t="str">
+        <v>absent</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v>02000399691</v>
+      </c>
+      <c r="B40" t="str">
+        <v>SAN VICENTE, ANDRE JAY SALAZAR</v>
+      </c>
+      <c r="C40" t="str">
+        <v>11-ABM</v>
+      </c>
+      <c r="D40" t="str">
+        <v>absent</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v>02000399691</v>
+      </c>
+      <c r="B41" t="str">
+        <v>SAN VICENTE, ANDRE JAY SALAZAR</v>
+      </c>
+      <c r="C41" t="str">
+        <v>11-ABM</v>
+      </c>
+      <c r="D41" t="str">
+        <v>present</v>
+      </c>
+      <c r="E41" t="str">
+        <v>09:08:00</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v>02000390557</v>
+      </c>
+      <c r="B42" t="str">
+        <v>VALENZUELA, CRYSTAL JANE APOSTOL</v>
+      </c>
+      <c r="C42" t="str">
+        <v>11-ABM</v>
+      </c>
+      <c r="D42" t="str">
+        <v>present</v>
+      </c>
+      <c r="E42" t="str">
+        <v>09:08:00</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v>02000390557</v>
+      </c>
+      <c r="B43" t="str">
+        <v>VALENZUELA, CRYSTAL JANE APOSTOL</v>
+      </c>
+      <c r="C43" t="str">
+        <v>11-ABM</v>
+      </c>
+      <c r="D43" t="str">
+        <v>absent</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v>02000390557</v>
+      </c>
+      <c r="B44" t="str">
+        <v>VALENZUELA, CRYSTAL JANE APOSTOL</v>
+      </c>
+      <c r="C44" t="str">
+        <v>11-ABM</v>
+      </c>
+      <c r="D44" t="str">
+        <v>absent</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="str">
+        <v>02000390557</v>
+      </c>
+      <c r="B45" t="str">
+        <v>VALENZUELA, CRYSTAL JANE APOSTOL</v>
+      </c>
+      <c r="C45" t="str">
+        <v>11-ABM</v>
+      </c>
+      <c r="D45" t="str">
+        <v>absent</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="str">
+        <v>02000390832</v>
+      </c>
+      <c r="B46" t="str">
+        <v>ZAMUDIO, PATRICIA NICOLE LUKBAN</v>
+      </c>
+      <c r="C46" t="str">
+        <v>11-ABM</v>
+      </c>
+      <c r="D46" t="str">
+        <v>absent</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="str">
+        <v>02000390832</v>
+      </c>
+      <c r="B47" t="str">
+        <v>ZAMUDIO, PATRICIA NICOLE LUKBAN</v>
+      </c>
+      <c r="C47" t="str">
+        <v>11-ABM</v>
+      </c>
+      <c r="D47" t="str">
+        <v>absent</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="str">
+        <v>02000390832</v>
+      </c>
+      <c r="B48" t="str">
+        <v>ZAMUDIO, PATRICIA NICOLE LUKBAN</v>
+      </c>
+      <c r="C48" t="str">
+        <v>11-ABM</v>
+      </c>
+      <c r="D48" t="str">
+        <v>absent</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="str">
+        <v>02000390832</v>
+      </c>
+      <c r="B49" t="str">
+        <v>ZAMUDIO, PATRICIA NICOLE LUKBAN</v>
+      </c>
+      <c r="C49" t="str">
+        <v>11-ABM</v>
+      </c>
+      <c r="D49" t="str">
+        <v>present</v>
+      </c>
+      <c r="E49" t="str">
+        <v>09:08:00</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F13"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F49"/>
   </ignoredErrors>
 </worksheet>
 </file>